--- a/front-end/tests/test.xlsx
+++ b/front-end/tests/test.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
-  <si>
-    <t>Fichier JS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t xml:space="preserve">Problème possible </t>
   </si>
@@ -696,12 +693,15 @@
   <si>
     <t>Renvoit une erreur si les champs du formualire ne sont pas correctement remplient celon Regex définis</t>
   </si>
+  <si>
+    <t>Page confirmation : 2-44</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,11 +793,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -862,50 +857,50 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,13 +915,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4210050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1362075</xdr:rowOff>
@@ -958,13 +953,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4324350</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1543050</xdr:rowOff>
@@ -1005,13 +1000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4305300</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
@@ -1052,13 +1047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4248150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1090,13 +1085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4267200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1137,13 +1132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4210050</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1169,6 +1164,46 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4448175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="https://lh5.googleusercontent.com/Z_M8fla7NOE1V4HbilOM7mcSHQ2O0DdN6pAEYGNpe4VZ98AGEB9YGnMACIrjH1UFiWEfbIDyeJDYpIUIU2VVvCyQHv4jkSx_RM6q0_1YkGHUpaVhaDwdSuYZLlw95WZCh7rXff9fHZ4=s0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="22736175"/>
+          <a:ext cx="4276725" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1461,531 +1496,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="111" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="111" customHeight="1">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="122.25" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="18"/>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="120">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1">
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="B5" s="15"/>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="B6" s="15"/>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="B7" s="15"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="15"/>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="120">
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="60" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" customHeight="1">
-      <c r="B14" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" ht="24" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="15"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="2:6" ht="60" customHeight="1">
-      <c r="B20" s="15" t="s">
-        <v>32</v>
+      <c r="B20" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="45">
+      <c r="A25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="45">
+      <c r="A29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" ht="45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="18"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="18"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="18"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="18"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="15"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="2:6" ht="30">
-      <c r="B22" s="15"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="15"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="15"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="2:6" ht="45">
-      <c r="B25" s="15"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="2:6" ht="30">
-      <c r="B26" s="15"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="2:6" ht="30">
-      <c r="B27" s="15"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="15"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="2:6" ht="45">
-      <c r="B29" s="15"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="2:6" ht="45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="15"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="15"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="2:6" ht="30">
-      <c r="B33" s="15"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="15"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="2:6" ht="30">
-      <c r="B35" s="15"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="15"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="15"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22" t="s">
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="18"/>
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="18"/>
+      <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="30">
-      <c r="B39" s="15"/>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45">
+      <c r="A44" s="18"/>
+      <c r="B44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="18"/>
+      <c r="D45" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="25" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
+      <c r="D46" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="1"/>
+      <c r="D47" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="1"/>
+      <c r="D48" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30">
+      <c r="D49" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30">
+      <c r="D50" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="D52" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30">
+      <c r="D53" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="D54" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="D56" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="D58" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1">
+      <c r="A60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="15"/>
-      <c r="E40" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" ht="30">
-      <c r="B43" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="45">
-      <c r="B44" s="15"/>
-      <c r="C44" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="15"/>
-      <c r="E45" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1"/>
-      <c r="E46" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="30">
-      <c r="B47" s="1"/>
-      <c r="E47" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="30">
-      <c r="B48" s="1"/>
-      <c r="E48" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" ht="30">
-      <c r="E49" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" ht="30">
-      <c r="E50" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" ht="30">
-      <c r="E53" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" ht="30">
-      <c r="E54" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" ht="30">
-      <c r="E58" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="26" t="s">
-        <v>70</v>
-      </c>
+      <c r="C60" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="18"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F20:F37"/>
-    <mergeCell ref="D20:D37"/>
-    <mergeCell ref="C20:C37"/>
-    <mergeCell ref="B20:B37"/>
-    <mergeCell ref="E4:E11"/>
+  <mergeCells count="18">
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="D4:D11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="A4:A11"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E20:E37"/>
+    <mergeCell ref="C20:C37"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="A20:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/front-end/tests/test.xlsx
+++ b/front-end/tests/test.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -879,27 +880,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:A62"/>
     </sheetView>
   </sheetViews>
@@ -1569,10 +1570,10 @@
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1584,56 +1585,56 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
@@ -1656,219 +1657,219 @@
       <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1">
       <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="30">
       <c r="A26" s="18"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="18"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="18"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="45">
       <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="45">
       <c r="A30" s="18"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="18"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="18"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" ht="30">
       <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="18"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
@@ -2007,30 +2008,35 @@
       <c r="A60" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="18"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="18"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E20:E37"/>
+    <mergeCell ref="C20:C37"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="A20:A37"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="D60:D62"/>
@@ -2044,11 +2050,6 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E20:E37"/>
-    <mergeCell ref="C20:C37"/>
-    <mergeCell ref="B20:B37"/>
-    <mergeCell ref="A20:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
